--- a/Status Reports/12-7_Status_Report.xlsx
+++ b/Status Reports/12-7_Status_Report.xlsx
@@ -667,12 +667,203 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -705,203 +896,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="327">
+  <dxfs count="205">
     <dxf>
       <fill>
         <patternFill>
@@ -919,6 +919,111 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -975,13 +1080,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -996,167 +1094,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9"/>
         </patternFill>
       </fill>
@@ -1171,20 +1108,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1241,20 +1164,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1263,769 +1172,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3470,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3488,604 +2634,656 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13">
+      <c r="G1" s="77"/>
+      <c r="H1" s="78">
         <v>43441</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="12" t="s">
+      <c r="I1" s="76"/>
+      <c r="J1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="77"/>
+      <c r="L1" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="18" t="s">
+      <c r="L2" s="85"/>
+      <c r="M2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="21"/>
+      <c r="N2" s="86"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="9" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24">
+      <c r="L3" s="12"/>
+      <c r="M3" s="44">
         <v>43439</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="22" t="s">
+      <c r="N3" s="45"/>
+      <c r="O3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="23"/>
+      <c r="P3" s="12"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="49" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24">
+      <c r="L4" s="12"/>
+      <c r="M4" s="44">
         <v>43441</v>
       </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="22" t="s">
+      <c r="N4" s="45"/>
+      <c r="O4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="23"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="49" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24">
+      <c r="L5" s="12"/>
+      <c r="M5" s="44">
         <v>43441</v>
       </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="22" t="s">
+      <c r="N5" s="45"/>
+      <c r="O5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="23"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="85" t="s">
+      <c r="K6" s="11"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="86"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="22" t="s">
+      <c r="K7" s="56"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="23"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="45"/>
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="32"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="60"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="30"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="48"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="39" t="s">
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39" t="s">
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="41"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="68"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="41"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="68"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="41"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="68"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="41"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="68"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="70"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="28" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="30"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="48"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="56" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="59"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="5">
         <v>1.5</v>
       </c>
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="73" t="s">
+      <c r="G19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="75"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="33"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="5">
-        <v>3</v>
-      </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="78"/>
+        <v>5</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="36"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="81"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="39"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="5">
         <v>0.5</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="73" t="s">
+      <c r="G22" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="75"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="33"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="5">
         <v>1.5</v>
       </c>
-      <c r="F23" s="63"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="78"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="36"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="5">
         <v>1.5</v>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="81"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="39"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="66"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="24"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="69"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="27"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="72"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="30"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="7">
         <f>SUM(E19:E27)</f>
-        <v>9</v>
-      </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="62"/>
+        <v>11</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="F17:N17"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="A12:E16"/>
+    <mergeCell ref="F12:I16"/>
+    <mergeCell ref="J12:N16"/>
+    <mergeCell ref="A3:F10"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="F28:N28"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:N27"/>
+    <mergeCell ref="G22:N24"/>
+    <mergeCell ref="G19:N21"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
@@ -4102,827 +3300,775 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F28:N28"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:N27"/>
-    <mergeCell ref="G22:N24"/>
-    <mergeCell ref="G19:N21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G18:N18"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="F17:N17"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="A12:E16"/>
-    <mergeCell ref="F12:I16"/>
-    <mergeCell ref="J12:N16"/>
-    <mergeCell ref="A3:F10"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O7:P7"/>
   </mergeCells>
   <conditionalFormatting sqref="K9:L10">
-    <cfRule type="containsText" dxfId="326" priority="540" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="204" priority="540" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L10">
-    <cfRule type="containsText" dxfId="325" priority="538" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="203" priority="538" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="324" priority="526" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="202" priority="526" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="323" priority="527" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="201" priority="527" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="528" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="200" priority="528" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E22">
-    <cfRule type="cellIs" dxfId="321" priority="524" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="199" priority="524" operator="greaterThan">
       <formula>252250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="525" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="198" priority="525" operator="greaterThan">
       <formula>252250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:L10">
-    <cfRule type="containsText" dxfId="319" priority="512" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="197" priority="512" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="513" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="196" priority="513" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="514" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="195" priority="514" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="316" priority="510" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="194" priority="510" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="511" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="193" priority="511" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="314" priority="484" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="192" priority="484" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="485" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="191" priority="485" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="312" priority="459" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="190" priority="459" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="311" priority="457" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="189" priority="457" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="310" priority="455" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="188" priority="455" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="456" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="187" priority="456" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="308" priority="454" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="186" priority="454" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="307" priority="452" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="185" priority="452" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="306" priority="450" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="184" priority="450" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="451" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="183" priority="451" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="304" priority="431" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="182" priority="431" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="432" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="181" priority="432" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="302" priority="428" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="180" priority="428" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="429" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="179" priority="429" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="430" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="178" priority="430" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="299" priority="426" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="177" priority="426" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="427" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="176" priority="427" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="297" priority="390" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="175" priority="390" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="391" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="174" priority="391" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="295" priority="388" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="173" priority="388" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="389" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="172" priority="389" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="293" priority="385" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="171" priority="385" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="386" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="170" priority="386" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="387" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="169" priority="387" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="290" priority="383" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="168" priority="383" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="384" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="167" priority="384" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="288" priority="381" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="166" priority="381" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="382" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="165" priority="382" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:P3">
-    <cfRule type="containsText" dxfId="286" priority="380" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="164" priority="380" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",O3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:P3">
-    <cfRule type="containsText" dxfId="285" priority="378" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="163" priority="378" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",O3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:P3">
-    <cfRule type="containsText" dxfId="284" priority="376" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="162" priority="376" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="377" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="161" priority="377" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",O3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:P3">
-    <cfRule type="containsText" dxfId="282" priority="375" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="160" priority="375" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",O3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:P3">
-    <cfRule type="containsText" dxfId="281" priority="373" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="159" priority="373" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",O3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:P3">
-    <cfRule type="containsText" dxfId="280" priority="371" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="158" priority="371" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="279" priority="372" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="157" priority="372" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",O3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="containsText" dxfId="278" priority="370" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="156" priority="370" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",O5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="containsText" dxfId="277" priority="368" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="155" priority="368" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",O5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="containsText" dxfId="276" priority="365" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="154" priority="365" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",O5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="366" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="153" priority="366" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",O5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="367" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="152" priority="367" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",O5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="containsText" dxfId="273" priority="363" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="151" priority="363" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="364" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="150" priority="364" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="containsText" dxfId="271" priority="361" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="149" priority="361" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="362" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="148" priority="362" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="containsText" dxfId="269" priority="359" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="147" priority="359" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="360" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="146" priority="360" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="containsText" dxfId="267" priority="356" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="145" priority="356" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",O5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="266" priority="357" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="144" priority="357" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",O5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="358" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="143" priority="358" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",O5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:P5">
-    <cfRule type="containsText" dxfId="264" priority="354" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="142" priority="354" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="355" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="141" priority="355" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="containsText" dxfId="262" priority="353" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="140" priority="353" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",O6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="containsText" dxfId="261" priority="351" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="139" priority="351" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",O6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P6">
-    <cfRule type="containsText" dxfId="260" priority="348" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="138" priority="348" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",O6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="349" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="137" priority="349" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",O6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="350" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="136" priority="350" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",O6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="257" priority="347" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="135" priority="347" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="256" priority="345" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="134" priority="345" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="255" priority="342" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="133" priority="342" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="343" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="132" priority="343" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="344" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="131" priority="344" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="252" priority="340" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="130" priority="340" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="341" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="129" priority="341" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="250" priority="338" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="128" priority="338" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="339" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="127" priority="339" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="248" priority="336" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="126" priority="336" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="337" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="125" priority="337" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="246" priority="333" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="124" priority="333" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="334" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="123" priority="334" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="335" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="122" priority="335" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="243" priority="331" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="121" priority="331" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="332" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="120" priority="332" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="241" priority="329" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="119" priority="329" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="330" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="118" priority="330" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="239" priority="327" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="117" priority="327" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="328" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="116" priority="328" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="237" priority="324" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="115" priority="324" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="325" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="114" priority="325" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="326" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="113" priority="326" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="234" priority="322" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="112" priority="322" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="323" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="111" priority="323" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P4">
-    <cfRule type="containsText" dxfId="232" priority="320" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="110" priority="320" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",O4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="321" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="109" priority="321" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",O4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:P7">
-    <cfRule type="containsText" dxfId="230" priority="319" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="108" priority="319" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:P7">
-    <cfRule type="containsText" dxfId="229" priority="317" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="107" priority="317" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:P7">
-    <cfRule type="containsText" dxfId="228" priority="314" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="106" priority="314" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",O7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="315" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="105" priority="315" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",O7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="316" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="104" priority="316" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="225" priority="301" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="103" priority="301" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="302" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="102" priority="302" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="303" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="101" priority="303" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="222" priority="270" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="100" priority="270" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="221" priority="268" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="99" priority="268" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="220" priority="265" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="98" priority="265" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="266" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="97" priority="266" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="267" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="96" priority="267" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="217" priority="263" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="95" priority="263" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="264" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="94" priority="264" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="215" priority="261" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="93" priority="261" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="262" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="92" priority="262" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="213" priority="259" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="91" priority="259" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="260" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="90" priority="260" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="211" priority="256" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="89" priority="256" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="257" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="88" priority="257" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="258" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="87" priority="258" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="208" priority="254" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="86" priority="254" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="255" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="85" priority="255" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="206" priority="252" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="84" priority="252" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="253" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="83" priority="253" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="204" priority="250" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="82" priority="250" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="251" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="81" priority="251" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="202" priority="247" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="80" priority="247" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="248" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="79" priority="248" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="249" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="78" priority="249" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="199" priority="245" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="77" priority="245" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="246" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="76" priority="246" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="197" priority="243" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="75" priority="243" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="244" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="74" priority="244" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="195" priority="240" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="73" priority="240" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="241" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="72" priority="241" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="242" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="71" priority="242" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="192" priority="234" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="70" priority="234" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="191" priority="232" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="69" priority="232" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="190" priority="229" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="68" priority="229" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="230" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="67" priority="230" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="231" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="66" priority="231" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="187" priority="227" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="65" priority="227" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="228" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="64" priority="228" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="185" priority="225" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="63" priority="225" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="226" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="62" priority="226" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="183" priority="223" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="61" priority="223" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="224" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="60" priority="224" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="181" priority="220" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="59" priority="220" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="221" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="58" priority="221" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="222" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="57" priority="222" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="178" priority="218" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="56" priority="218" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="219" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="55" priority="219" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="176" priority="216" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="54" priority="216" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="217" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="53" priority="217" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="174" priority="214" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="52" priority="214" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="215" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="51" priority="215" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="172" priority="211" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="50" priority="211" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="212" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="49" priority="212" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="213" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="48" priority="213" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="169" priority="209" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="47" priority="209" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="210" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="46" priority="210" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="167" priority="207" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="45" priority="207" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="208" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="44" priority="208" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:L7">
-    <cfRule type="containsText" dxfId="165" priority="204" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="43" priority="204" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="205" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="42" priority="205" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="206" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="41" priority="206" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="40" priority="68" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="66" priority="66" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="39" priority="66" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="65" priority="64" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="38" priority="64" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="37" priority="65" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="63" priority="63" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="36" priority="63" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="35" priority="61" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="61" priority="59" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="34" priority="59" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="60" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="33" priority="60" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="containsText" dxfId="57" priority="58" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="32" priority="58" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="containsText" dxfId="56" priority="56" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="31" priority="56" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="30" priority="54" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="29" priority="55" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="28" priority="53" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="27" priority="51" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="26" priority="49" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="25" priority="50" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="24" priority="10" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
